--- a/Dokumentáció/CS2_ütemterv.xlsx
+++ b/Dokumentáció/CS2_ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB355BF-30FB-465B-86A1-0E5A1B232B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61A5B59-8A2A-4199-973C-BB861AC230C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,7 +1008,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1322,33 +1322,33 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -1362,13 +1362,13 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -1402,13 +1402,13 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1856,7 +1856,7 @@
       <formula>H$4=időszak_kiválasztva</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="16">
+  <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A projekttervező időszakokat használ az időintervallumokhoz. A kezdés=1 az 1. időszakot, az időtartam=5 pedig azt jelenti, hogy a projekt a kezdőidőszaktól számítva 5 időszakon ível át. A diagram frissítéséhez kezdjen el adatokat beírni a B5 cellától." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Írjon be egy 1 és 60 közötti értéket, vagy válasszon egyet a listából. Válassza a MÉGSE lehetőséget, majd nyomja le az ALT+LE, ENTER billentyűkombinációt egy érték kiválasztásához." prompt="Válasszon egy időszakot 1 és 60 között, vagy válasszon egyet a listából. Az ALT+LE billentyűkombinációval navigálhat a listában, majd az ENTER billentyűt lenyomva kiválaszthat egy értéket." sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
@@ -1867,7 +1867,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a tényleges időtartamot jelöli a tervezetten túl" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a projekt készültségi szintjét mutatja a tervezetten túl." sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Az időszakok 1-től 60-ig terjednek a H4-BO4 cellatartományban. " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A tevékenységet a B oszlopban, a B5 cellától kezdve adhatja meg." sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A tevékenységet a B oszlopban, a B5 cellától kezdve adhatja meg." sqref="B3:B6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A terv kezdési időszakát a C oszlopban, a C5 cellától kezdve adhatja meg." sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A terv időtartamát a D oszlopban, a D5 cellától indulva adhatja meg" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A terv tényleges kezdési időszakát az E oszlopban, az E5 cellától indulva adhatja meg" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>

--- a/Dokumentáció/CS2_ütemterv.xlsx
+++ b/Dokumentáció/CS2_ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61A5B59-8A2A-4199-973C-BB861AC230C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB287B-16C6-468A-B759-FD99ADB3E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,7 +1008,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1448,7 +1448,7 @@
         <v>77</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>

--- a/Dokumentáció/CS2_ütemterv.xlsx
+++ b/Dokumentáció/CS2_ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB287B-16C6-468A-B759-FD99ADB3E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463C60E9-1C38-408A-BEE4-8D66E468304B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,120 @@
     <cellStyle name="Terv jelmagyarázata" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Tevékenység" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1005,10 +1118,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:DW30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1136,7 @@
     <col min="8" max="27" width="3.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:127" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1146,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:127" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1203,7 @@
       <c r="AO2" s="25"/>
       <c r="AP2" s="25"/>
     </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:127" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
@@ -1132,7 +1245,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -1319,8 +1432,188 @@
       <c r="BO4" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BP4" s="3">
+        <v>61</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>62</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>63</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>64</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>65</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>66</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>67</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>68</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>69</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>70</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>71</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>72</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>73</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>74</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>75</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>76</v>
+      </c>
+      <c r="CF4" s="3">
+        <v>77</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>78</v>
+      </c>
+      <c r="CH4" s="3">
+        <v>79</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>80</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>81</v>
+      </c>
+      <c r="CK4" s="3">
+        <v>82</v>
+      </c>
+      <c r="CL4" s="3">
+        <v>83</v>
+      </c>
+      <c r="CM4" s="3">
+        <v>84</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>85</v>
+      </c>
+      <c r="CO4" s="3">
+        <v>86</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>87</v>
+      </c>
+      <c r="CQ4" s="3">
+        <v>88</v>
+      </c>
+      <c r="CR4" s="3">
+        <v>89</v>
+      </c>
+      <c r="CS4" s="3">
+        <v>90</v>
+      </c>
+      <c r="CT4" s="3">
+        <v>91</v>
+      </c>
+      <c r="CU4" s="3">
+        <v>92</v>
+      </c>
+      <c r="CV4" s="3">
+        <v>93</v>
+      </c>
+      <c r="CW4" s="3">
+        <v>94</v>
+      </c>
+      <c r="CX4" s="3">
+        <v>95</v>
+      </c>
+      <c r="CY4" s="3">
+        <v>96</v>
+      </c>
+      <c r="CZ4" s="3">
+        <v>97</v>
+      </c>
+      <c r="DA4" s="3">
+        <v>98</v>
+      </c>
+      <c r="DB4" s="3">
+        <v>99</v>
+      </c>
+      <c r="DC4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DD4" s="3">
+        <v>101</v>
+      </c>
+      <c r="DE4" s="3">
+        <v>102</v>
+      </c>
+      <c r="DF4" s="3">
+        <v>103</v>
+      </c>
+      <c r="DG4" s="3">
+        <v>104</v>
+      </c>
+      <c r="DH4" s="3">
+        <v>105</v>
+      </c>
+      <c r="DI4" s="3">
+        <v>106</v>
+      </c>
+      <c r="DJ4" s="3">
+        <v>107</v>
+      </c>
+      <c r="DK4" s="3">
+        <v>108</v>
+      </c>
+      <c r="DL4" s="3">
+        <v>109</v>
+      </c>
+      <c r="DM4" s="3">
+        <v>110</v>
+      </c>
+      <c r="DN4" s="3">
+        <v>111</v>
+      </c>
+      <c r="DO4" s="3">
+        <v>112</v>
+      </c>
+      <c r="DP4" s="3">
+        <v>113</v>
+      </c>
+      <c r="DQ4" s="3">
+        <v>114</v>
+      </c>
+      <c r="DR4" s="3">
+        <v>115</v>
+      </c>
+      <c r="DS4" s="3">
+        <v>116</v>
+      </c>
+      <c r="DT4" s="3">
+        <v>117</v>
+      </c>
+      <c r="DU4" s="3">
+        <v>118</v>
+      </c>
+      <c r="DV4" s="3">
+        <v>119</v>
+      </c>
+      <c r="DW4" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1633,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1360,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1380,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1400,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1420,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1440,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1460,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="7">
         <v>0</v>
@@ -1518,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="9">
         <v>0</v>
@@ -1536,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="7">
         <v>0</v>
@@ -1820,39 +2113,39 @@
     <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="W2:X2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="H5:DW30">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>H$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="0" priority="8">
+  <conditionalFormatting sqref="H4:DW4">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>H$4=időszak_kiválasztva</formula>
     </cfRule>
   </conditionalFormatting>
